--- a/webScrapping/espn_scrapper/IPL/Delhi Capitals/Alex Carey †.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Delhi Capitals/Alex Carey †.xlsx
@@ -439,19 +439,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 14 2020</v>
+        <v xml:space="preserve"> Oct 11 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C2" t="str">
-        <v>Capitals won by 13 runs</v>
+        <v>Mumbai won by 5 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E2" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="F2" t="str">
         <v>Alex Carey †</v>
@@ -460,33 +460,33 @@
         <v>14</v>
       </c>
       <c r="H2" t="str">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" t="str">
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>107.69</v>
+        <v>155.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 11 2020</v>
+        <v xml:space="preserve"> Oct 14 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C3" t="str">
-        <v>Mumbai won by 5 wickets (with 2 balls remaining)</v>
+        <v>Capitals won by 13 runs</v>
       </c>
       <c r="D3" t="str">
         <v>Delhi Capitals</v>
       </c>
       <c r="E3" t="str">
-        <v>Mumbai Indians</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="F3" t="str">
         <v>Alex Carey †</v>
@@ -495,16 +495,16 @@
         <v>14</v>
       </c>
       <c r="H3" t="str">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I3" t="str">
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>155.55</v>
+        <v>107.69</v>
       </c>
     </row>
   </sheetData>
